--- a/3_Documentacao/3-7_Listagem_de_componentes_mais_links_de_compra_auxiliares.xlsx
+++ b/3_Documentacao/3-7_Listagem_de_componentes_mais_links_de_compra_auxiliares.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7230DCF2-3968-421E-8296-5D2F0E330AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC79C26-9627-4634-8066-FC75F6C01A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Previsão de custos_IPL" sheetId="2" r:id="rId1"/>
@@ -13,11 +13,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Previsão de custos_IPL'!$A$1:$H$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Previsão de custos_PUBLICO'!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Previsão de custos_PUBLICO'!$A$1:$H$31</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Previsão de custos_IPL'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Previsão de custos_PUBLICO'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>Dep. Eng. Eletrotécnica - UC de Projeto em Engenharia Eletrotécnica e de Computadores</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Link auxiliar</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/1005001671905196.html?cv=1578323&amp;af=317185&amp;aff_platform=aaf&amp;afref=https%3A%2F%2Fpt-go.kelkoogroup.net%2Fgo%3Fcountry%3Dpt%26k%3D612f7a9541cd6ea61eb554c0e4cff43733a2e1ee73eabb4dd0e09eb5f5bd8713b9c809ab68e92f89fcb1fc4978394f232f96a079711fc9134efe9b42280e445c55ebbcea51ec598cdceab29073897c77a79b95c376632f32d0ef05a622e62ab22cd421d9638201c1f7ca3ddaae2243b59f81849d9691a9470009180c6f28e9154801bbe41166a69a6ec54da6f9d0b74b2d175f3da77a131961f9d5e7f3c2e9208234b27218ee077cc8c15daf3f999f4e48ce8a05a9166a21c8a6e1aab9b7751e1c5aae847ee94d7c50d6ea5771010c9f2cb221a11b78b160c6594ebf6603699d9f7ba6863d80a98d659a0f17081d7e758fafe9aae2f16c89f316ca6dadb9656cafcd20a892c545c643b96aa1a4569cd8bd407bce10719f94191c298ffdaed5ca94f125eccd6bf09e87a5522f6aa24ad8cf6b84d113b8388a1e80cd5db2292994cda08ef86d2c59ad058c392ca8a12df311b62a07f2c122fd2750884e51b78a823832a110b7881a990e4c6e8db09d2519b91af49b741c5ef9585e35151bbc9c18bab6cbd35428c24aaf8da4c78b145e87be783b806e53846586292cb99217475f7373475bfea30b1c5ed5ab679e5cf3afccaba87a475326e03e93df90e3305c2ffdd571d04316f9a4a62d2a8f6aec5d9a3b3dd7e945b711c799e2cd9c2ae2fc1f320937da061bd9fd56a805617025d9687831d79618e522b9df771dd94128dee29c2c56361fe6052578d42bb40a4c7e07476b172a4931accb26d541cd97f9fa80b88aa1dcfe1a51de9913a244c92e1dc800054f645dbf4ddb472eee8148899260e695a2ed6b2bb4a2d24b391ba2ef98576b52f6c88e8ef661%26o%3D&amp;sk=Y7bAZbY&amp;aff_trace_key=9ac7ebc4606e4b98a5afa65ef5ae966b-1604619153713-06995-Y7bAZbY&amp;cn=27294&amp;dp=1578323%3A%3A317185%3A%3Adc1-kls-prod-srv-05.prod.dc1.kelkoo.net%7E1604619152581%7E3579811%3A%3A%3A%3A1604619153&amp;terminal_id=994c876fb30e4c74af025048b67940cc</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/32959541446.html?spm=a2g0o.productlist.0.0.1d235b51iqhDi9&amp;algo_pvid=cfd45f34-7588-45fa-8c51-7faacc5af2b1&amp;algo_expid=cfd45f34-7588-45fa-8c51-7faacc5af2b1-0&amp;btsid=0b0a556e16045930858694139e6fc3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   <si>
     <t>https://www.aliexpress.com/item/4000108827764.html?spm=a2g0o.productlist.0.0.542b31a4GjoSiR&amp;algo_pvid=69e801f2-8fc1-4df6-b198-3d32f88868cf&amp;algo_expid=69e801f2-8fc1-4df6-b198-3d32f88868cf-1&amp;btsid=0b0a555c16046173844194541e7602&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
   </si>
+  <si>
+    <t>iModBot</t>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +319,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="72"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -334,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -709,12 +723,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -865,18 +890,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -910,9 +923,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1043,7 +1092,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1369,7 +1418,7 @@
       <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
@@ -1381,99 +1430,99 @@
     <col min="11" max="11" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1"/>
-    <row r="3" spans="1:13" ht="30" customHeight="1">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="24.95" customHeight="1">
+    <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
       <c r="I4" s="4"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="24.95" customHeight="1">
+    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="4"/>
       <c r="C5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="67"/>
       <c r="I5" s="4"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="24.95" customHeight="1">
+    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="4"/>
       <c r="C6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
       <c r="I6" s="4"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="24.95" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
       <c r="C7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="68">
         <v>44174</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="70"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="9" customHeight="1">
+    <row r="8" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1483,18 +1532,18 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="71"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
-      <c r="J9" s="63"/>
-      <c r="K9" s="60"/>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" thickTop="1">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="74"/>
+      <c r="K9" s="71"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1574,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -1552,7 +1601,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>2</v>
       </c>
@@ -1582,7 +1631,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>3</v>
       </c>
@@ -1614,7 +1663,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>4</v>
       </c>
@@ -1644,7 +1693,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="43.5" customHeight="1">
+    <row r="15" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>5</v>
       </c>
@@ -1674,7 +1723,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="22.15" customHeight="1">
+    <row r="16" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>6</v>
       </c>
@@ -1704,7 +1753,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1">
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>7</v>
       </c>
@@ -1734,7 +1783,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="26.45">
+    <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>8</v>
       </c>
@@ -1764,7 +1813,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="37">
         <v>9</v>
       </c>
@@ -1794,7 +1843,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="51">
         <v>10</v>
       </c>
@@ -1824,7 +1873,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="26.45">
+    <row r="21" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
         <v>11</v>
       </c>
@@ -1854,7 +1903,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="26.45">
+    <row r="22" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>12</v>
       </c>
@@ -1884,7 +1933,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="27.75" customHeight="1">
+    <row r="23" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
         <v>13</v>
       </c>
@@ -1914,7 +1963,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="26.45">
+    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>14</v>
       </c>
@@ -1944,7 +1993,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="41"/>
       <c r="C25" s="39"/>
@@ -1959,7 +2008,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="B26" s="46" t="s">
         <v>51</v>
@@ -1979,7 +2028,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickTop="1">
+    <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>52</v>
       </c>
@@ -1996,75 +2045,75 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="24.95" customHeight="1">
+    <row r="28" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="24.95" customHeight="1">
+    <row r="29" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="24.95" customHeight="1">
+    <row r="30" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="24.95" customHeight="1">
+    <row r="31" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="59"/>
       <c r="C32" s="16"/>
@@ -2079,7 +2128,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="59"/>
       <c r="C33" s="16"/>
@@ -2094,7 +2143,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="59"/>
       <c r="C34" s="16"/>
@@ -2109,7 +2158,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="59"/>
       <c r="C35" s="16"/>
@@ -2124,7 +2173,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="59"/>
       <c r="C36" s="16"/>
@@ -2139,7 +2188,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="59"/>
       <c r="C37" s="16"/>
@@ -2154,7 +2203,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="59"/>
       <c r="C38" s="16"/>
@@ -2169,7 +2218,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="59"/>
       <c r="C39" s="16"/>
@@ -2184,7 +2233,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="59"/>
       <c r="C40" s="16"/>
@@ -2199,7 +2248,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="59"/>
       <c r="C41" s="16"/>
@@ -2214,7 +2263,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="59"/>
       <c r="C42" s="16"/>
@@ -2229,7 +2278,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="59"/>
       <c r="C43" s="16"/>
@@ -2244,7 +2293,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="59"/>
       <c r="C44" s="16"/>
@@ -2259,7 +2308,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="59"/>
       <c r="C45" s="16"/>
@@ -2274,7 +2323,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="59"/>
       <c r="C46" s="16"/>
@@ -2289,7 +2338,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="59"/>
       <c r="C47" s="16"/>
@@ -2304,7 +2353,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="59"/>
       <c r="C48" s="16"/>
@@ -2319,7 +2368,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="59"/>
       <c r="C49" s="16"/>
@@ -2334,7 +2383,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="59"/>
       <c r="C50" s="16"/>
@@ -2349,7 +2398,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="59"/>
       <c r="C51" s="16"/>
@@ -2364,7 +2413,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="59"/>
       <c r="C52" s="16"/>
@@ -2379,7 +2428,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="59"/>
       <c r="C53" s="16"/>
@@ -2394,7 +2443,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="59"/>
       <c r="C54" s="16"/>
@@ -2409,7 +2458,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="59"/>
       <c r="C55" s="16"/>
@@ -2424,7 +2473,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="59"/>
       <c r="C56" s="16"/>
@@ -2439,7 +2488,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="59"/>
       <c r="C57" s="16"/>
@@ -2454,7 +2503,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="59"/>
       <c r="C58" s="16"/>
@@ -2469,7 +2518,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="59"/>
       <c r="C59" s="16"/>
@@ -2484,7 +2533,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="59"/>
       <c r="C60" s="16"/>
@@ -2499,7 +2548,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="59"/>
       <c r="C61" s="16"/>
@@ -2514,7 +2563,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="59"/>
       <c r="C62" s="16"/>
@@ -2529,7 +2578,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="59"/>
       <c r="C63" s="16"/>
@@ -2544,7 +2593,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="59"/>
       <c r="C64" s="16"/>
@@ -2559,7 +2608,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="59"/>
       <c r="C65" s="16"/>
@@ -2574,7 +2623,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="59"/>
       <c r="C66" s="16"/>
@@ -2589,7 +2638,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="59"/>
       <c r="C67" s="16"/>
@@ -2604,7 +2653,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="59"/>
       <c r="C68" s="16"/>
@@ -2619,7 +2668,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="59"/>
       <c r="C69" s="16"/>
@@ -2634,7 +2683,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="59"/>
       <c r="C70" s="16"/>
@@ -2649,7 +2698,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="59"/>
       <c r="C71" s="16"/>
@@ -2664,7 +2713,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="59"/>
       <c r="C72" s="16"/>
@@ -2679,7 +2728,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="59"/>
       <c r="C73" s="16"/>
@@ -2694,7 +2743,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="59"/>
       <c r="C74" s="16"/>
@@ -2709,7 +2758,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="59"/>
       <c r="C75" s="16"/>
@@ -2724,7 +2773,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="59"/>
       <c r="C76" s="16"/>
@@ -2739,7 +2788,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="59"/>
       <c r="C77" s="16"/>
@@ -2754,7 +2803,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="59"/>
       <c r="C78" s="16"/>
@@ -2769,7 +2818,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="59"/>
       <c r="C79" s="16"/>
@@ -2784,7 +2833,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="59"/>
       <c r="C80" s="16"/>
@@ -2799,7 +2848,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="59"/>
       <c r="C81" s="16"/>
@@ -2814,7 +2863,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="59"/>
       <c r="C82" s="16"/>
@@ -2829,7 +2878,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="59"/>
       <c r="C83" s="16"/>
@@ -2844,7 +2893,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="59"/>
       <c r="C84" s="16"/>
@@ -2859,7 +2908,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="59"/>
       <c r="C85" s="16"/>
@@ -2874,7 +2923,7 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="59"/>
       <c r="C86" s="16"/>
@@ -2889,7 +2938,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="59"/>
       <c r="C87" s="16"/>
@@ -2904,7 +2953,7 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="59"/>
       <c r="C88" s="16"/>
@@ -2919,7 +2968,7 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="59"/>
       <c r="C89" s="16"/>
@@ -2934,7 +2983,7 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="59"/>
       <c r="C90" s="16"/>
@@ -2949,7 +2998,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="59"/>
       <c r="C91" s="16"/>
@@ -2964,7 +3013,7 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="59"/>
       <c r="C92" s="16"/>
@@ -2979,7 +3028,7 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="59"/>
       <c r="C93" s="16"/>
@@ -2994,7 +3043,7 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="59"/>
       <c r="C94" s="16"/>
@@ -3009,7 +3058,7 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="59"/>
       <c r="C95" s="16"/>
@@ -3024,7 +3073,7 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="59"/>
       <c r="C96" s="16"/>
@@ -3039,7 +3088,7 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="59"/>
       <c r="C97" s="16"/>
@@ -3054,7 +3103,7 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="59"/>
       <c r="C98" s="16"/>
@@ -3069,7 +3118,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="59"/>
       <c r="C99" s="16"/>
@@ -3084,7 +3133,7 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="59"/>
       <c r="C100" s="16"/>
@@ -3099,7 +3148,7 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="59"/>
       <c r="C101" s="16"/>
@@ -3114,7 +3163,7 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="59"/>
       <c r="C102" s="16"/>
@@ -3129,7 +3178,7 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="59"/>
       <c r="C103" s="16"/>
@@ -3144,7 +3193,7 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="59"/>
       <c r="C104" s="16"/>
@@ -3159,7 +3208,7 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
       <c r="B105" s="59"/>
       <c r="C105" s="16"/>
@@ -3174,7 +3223,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="59"/>
       <c r="C106" s="16"/>
@@ -3189,7 +3238,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="59"/>
       <c r="C107" s="16"/>
@@ -3204,7 +3253,7 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="59"/>
       <c r="C108" s="16"/>
@@ -3219,7 +3268,7 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="3"/>
       <c r="C109" s="16"/>
@@ -3234,7 +3283,7 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="3"/>
       <c r="C110" s="16"/>
@@ -3249,7 +3298,7 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="3"/>
       <c r="C111" s="16"/>
@@ -3264,7 +3313,7 @@
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="3"/>
       <c r="C112" s="16"/>
@@ -3279,7 +3328,7 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="3"/>
       <c r="C113" s="16"/>
@@ -3294,7 +3343,7 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="3"/>
       <c r="C114" s="16"/>
@@ -3309,7 +3358,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="3"/>
       <c r="C115" s="16"/>
@@ -3324,7 +3373,7 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="3"/>
       <c r="C116" s="16"/>
@@ -3339,7 +3388,7 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="3"/>
       <c r="C117" s="16"/>
@@ -3354,7 +3403,7 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="3"/>
       <c r="C118" s="16"/>
@@ -3369,7 +3418,7 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="3"/>
       <c r="C119" s="16"/>
@@ -3384,7 +3433,7 @@
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="3"/>
       <c r="C120" s="16"/>
@@ -3399,7 +3448,7 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
       <c r="B121" s="3"/>
       <c r="C121" s="16"/>
@@ -3414,7 +3463,7 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="3"/>
       <c r="C122" s="16"/>
@@ -3429,7 +3478,7 @@
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="3"/>
       <c r="C123" s="16"/>
@@ -3444,7 +3493,7 @@
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
       <c r="B124" s="3"/>
       <c r="C124" s="16"/>
@@ -3459,7 +3508,7 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="3"/>
       <c r="C125" s="16"/>
@@ -3474,7 +3523,7 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="3"/>
       <c r="C126" s="16"/>
@@ -3489,7 +3538,7 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="15"/>
       <c r="B127" s="3"/>
       <c r="C127" s="16"/>
@@ -3504,7 +3553,7 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="3"/>
       <c r="C128" s="16"/>
@@ -3519,7 +3568,7 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="3"/>
       <c r="C129" s="16"/>
@@ -3534,7 +3583,7 @@
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="3"/>
       <c r="C130" s="16"/>
@@ -3549,7 +3598,7 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="3"/>
       <c r="C131" s="16"/>
@@ -3564,7 +3613,7 @@
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
       <c r="B132" s="3"/>
       <c r="C132" s="16"/>
@@ -3579,7 +3628,7 @@
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
       <c r="B133" s="3"/>
       <c r="C133" s="16"/>
@@ -3594,7 +3643,7 @@
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="3"/>
       <c r="C134" s="16"/>
@@ -3609,7 +3658,7 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
       <c r="B135" s="3"/>
       <c r="C135" s="16"/>
@@ -3624,7 +3673,7 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="15"/>
       <c r="B136" s="3"/>
       <c r="C136" s="16"/>
@@ -3639,7 +3688,7 @@
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="3"/>
       <c r="C137" s="16"/>
@@ -3654,7 +3703,7 @@
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
       <c r="B138" s="3"/>
       <c r="C138" s="16"/>
@@ -3669,7 +3718,7 @@
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
       <c r="B139" s="3"/>
       <c r="C139" s="16"/>
@@ -3684,7 +3733,7 @@
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
       <c r="B140" s="3"/>
       <c r="C140" s="16"/>
@@ -3699,7 +3748,7 @@
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="15"/>
       <c r="B141" s="3"/>
       <c r="C141" s="16"/>
@@ -3714,7 +3763,7 @@
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="15"/>
       <c r="B142" s="3"/>
       <c r="C142" s="16"/>
@@ -3729,7 +3778,7 @@
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="15"/>
       <c r="B143" s="3"/>
       <c r="C143" s="16"/>
@@ -3744,7 +3793,7 @@
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="15"/>
       <c r="B144" s="3"/>
       <c r="C144" s="16"/>
@@ -3759,7 +3808,7 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
       <c r="B145" s="3"/>
       <c r="C145" s="16"/>
@@ -3774,7 +3823,7 @@
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="3"/>
       <c r="C146" s="16"/>
@@ -3789,7 +3838,7 @@
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="15"/>
       <c r="B147" s="3"/>
       <c r="C147" s="16"/>
@@ -3804,7 +3853,7 @@
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
       <c r="B148" s="3"/>
       <c r="C148" s="16"/>
@@ -3819,7 +3868,7 @@
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
       <c r="B149" s="3"/>
       <c r="C149" s="16"/>
@@ -3834,7 +3883,7 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="15"/>
       <c r="B150" s="3"/>
       <c r="C150" s="16"/>
@@ -3849,7 +3898,7 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="15"/>
       <c r="B151" s="3"/>
       <c r="C151" s="16"/>
@@ -3864,7 +3913,7 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="15"/>
       <c r="B152" s="3"/>
       <c r="C152" s="16"/>
@@ -3879,7 +3928,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="15"/>
       <c r="B153" s="3"/>
       <c r="C153" s="16"/>
@@ -3894,7 +3943,7 @@
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="15"/>
       <c r="B154" s="3"/>
       <c r="C154" s="16"/>
@@ -3909,7 +3958,7 @@
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
       <c r="B155" s="3"/>
       <c r="C155" s="16"/>
@@ -3924,7 +3973,7 @@
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
       <c r="B156" s="3"/>
       <c r="C156" s="16"/>
@@ -3939,7 +3988,7 @@
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
       <c r="B157" s="3"/>
       <c r="C157" s="16"/>
@@ -3954,7 +4003,7 @@
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
       <c r="B158" s="3"/>
       <c r="C158" s="16"/>
@@ -3969,7 +4018,7 @@
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="15"/>
       <c r="B159" s="3"/>
       <c r="C159" s="16"/>
@@ -3984,7 +4033,7 @@
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="15"/>
       <c r="B160" s="3"/>
       <c r="C160" s="16"/>
@@ -3999,7 +4048,7 @@
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
       <c r="B161" s="3"/>
       <c r="C161" s="16"/>
@@ -4014,7 +4063,7 @@
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="15"/>
       <c r="B162" s="3"/>
       <c r="C162" s="16"/>
@@ -4029,7 +4078,7 @@
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="15"/>
       <c r="B163" s="3"/>
       <c r="C163" s="16"/>
@@ -4044,7 +4093,7 @@
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="3"/>
       <c r="C164" s="16"/>
@@ -4059,7 +4108,7 @@
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
       <c r="B165" s="3"/>
       <c r="C165" s="16"/>
@@ -4074,7 +4123,7 @@
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="15"/>
       <c r="B166" s="3"/>
       <c r="C166" s="16"/>
@@ -4089,7 +4138,7 @@
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="16"/>
@@ -4104,7 +4153,7 @@
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="16"/>
@@ -4119,7 +4168,7 @@
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="16"/>
@@ -4134,7 +4183,7 @@
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="9"/>
@@ -4151,17 +4200,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="B28:H28"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J12" r:id="rId1" xr:uid="{8308A694-B430-4423-897A-4A16F493628F}"/>
@@ -4188,13 +4237,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M171"/>
+  <dimension ref="A2:M170"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" customWidth="1"/>
@@ -4206,99 +4255,85 @@
     <col min="11" max="11" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1"/>
-    <row r="3" spans="1:13" ht="30" customHeight="1">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="C3" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="24.95" customHeight="1">
+    <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="4"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="24.95" customHeight="1">
+    <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="71"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="4"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="24.95" customHeight="1">
+    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="4"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="24.95" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="72">
-        <v>44174</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="9" customHeight="1">
+    <row r="8" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4308,17 +4343,17 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="71"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" thickTop="1">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -4348,26 +4383,27 @@
       <c r="K10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="15">
-      <c r="A11" s="10">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>2</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="12">
         <v>1</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12">
-        <v>2</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" s="13">
-        <v>59</v>
+        <v>2.83</v>
       </c>
       <c r="H11" s="14">
-        <v>59</v>
+        <f t="shared" ref="H11:H12" si="0">D11*G11</f>
+        <v>2.83</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="27" t="s">
@@ -4376,87 +4412,87 @@
       <c r="K11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G12" s="13">
-        <v>2.83</v>
+        <v>1.07</v>
       </c>
       <c r="H12" s="14">
-        <f t="shared" ref="H12:H13" si="0">D12*G12</f>
-        <v>11.32</v>
+        <f t="shared" si="0"/>
+        <v>1.07</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
-        <v>3</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G13" s="13">
-        <v>1.07</v>
+        <v>2.59</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" si="0"/>
-        <v>4.28</v>
+        <f>D13*G13</f>
+        <v>2.59</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="27" t="s">
-        <v>24</v>
-      </c>
+      <c r="K13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
-        <v>4</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G14" s="13">
-        <v>2.59</v>
+        <v>4.67</v>
       </c>
       <c r="H14" s="14">
         <f>D14*G14</f>
-        <v>10.36</v>
+        <v>9.34</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="27" t="s">
@@ -4465,27 +4501,27 @@
       <c r="K14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="14.45" customHeight="1">
+    <row r="15" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G15" s="13">
-        <v>4.67</v>
+        <v>3.69</v>
       </c>
       <c r="H15" s="14">
-        <f>D15*G15</f>
-        <v>37.36</v>
+        <f t="shared" ref="H15:H17" si="1">D15*G15</f>
+        <v>3.69</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="27" t="s">
@@ -4494,56 +4530,56 @@
       <c r="K15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
-      <c r="A16" s="28">
-        <v>6</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="12">
-        <v>4</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="13">
-        <v>3.69</v>
-      </c>
-      <c r="H16" s="14">
-        <f t="shared" ref="H16:H18" si="1">D16*G16</f>
-        <v>14.76</v>
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>7</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="43">
+        <v>0.89</v>
+      </c>
+      <c r="H16" s="44">
+        <f t="shared" si="1"/>
+        <v>0.89</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
-      <c r="A17" s="31">
-        <v>7</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33">
-        <v>4</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="43">
-        <v>0.89</v>
-      </c>
-      <c r="H17" s="44">
+    <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
+        <v>8</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40">
+        <v>1</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="42">
+        <v>0.38</v>
+      </c>
+      <c r="H17" s="42">
         <f t="shared" si="1"/>
-        <v>3.56</v>
+        <v>0.38</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="27" t="s">
@@ -4552,27 +4588,27 @@
       <c r="K17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="26.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18" s="42">
-        <v>0.38</v>
+        <v>4.66</v>
       </c>
       <c r="H18" s="42">
-        <f t="shared" si="1"/>
-        <v>1.52</v>
+        <f t="shared" ref="H18:H23" si="2">D18*G18</f>
+        <v>4.66</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="27" t="s">
@@ -4581,27 +4617,27 @@
       <c r="K18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="37">
-        <v>9</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40">
-        <v>4</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
+        <v>10</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54">
+        <v>2</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="42">
-        <v>4.66</v>
+      <c r="G19" s="56">
+        <v>0.82</v>
       </c>
       <c r="H19" s="42">
-        <f t="shared" ref="H19:H25" si="2">D19*G19</f>
-        <v>18.64</v>
+        <f t="shared" si="2"/>
+        <v>1.64</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="27" t="s">
@@ -4610,27 +4646,27 @@
       <c r="K19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="51">
-        <v>10</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54">
-        <v>8</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55" t="s">
+    <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
+        <v>11</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40">
+        <v>1</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="56">
-        <v>0.82</v>
+      <c r="G20" s="42">
+        <v>0.74</v>
       </c>
       <c r="H20" s="42">
         <f t="shared" si="2"/>
-        <v>6.56</v>
+        <v>0.74</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="27" t="s">
@@ -4639,16 +4675,16 @@
       <c r="K20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="26.45">
+    <row r="21" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="41" t="s">
@@ -4659,36 +4695,36 @@
       </c>
       <c r="H21" s="42">
         <f t="shared" si="2"/>
-        <v>2.96</v>
+        <v>0.74</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="26.45">
+    <row r="22" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="41" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G22" s="42">
-        <v>0.74</v>
+        <v>4.93</v>
       </c>
       <c r="H22" s="42">
         <f t="shared" si="2"/>
-        <v>2.96</v>
+        <v>4.93</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="27" t="s">
@@ -4697,68 +4733,54 @@
       <c r="K22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="27.75" customHeight="1">
+    <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="41" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G23" s="42">
-        <v>4.93</v>
+        <v>1.39</v>
       </c>
       <c r="H23" s="42">
         <f t="shared" si="2"/>
-        <v>19.72</v>
+        <v>1.39</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="27" t="s">
-        <v>70</v>
+      <c r="J23" s="58" t="s">
+        <v>50</v>
       </c>
       <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="25.5">
-      <c r="A24" s="37">
-        <v>14</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>49</v>
-      </c>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="39"/>
-      <c r="D24" s="40">
-        <v>1</v>
-      </c>
+      <c r="D24" s="40"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="42">
-        <v>1.39</v>
-      </c>
-      <c r="H24" s="42">
-        <f t="shared" si="2"/>
-        <v>1.39</v>
-      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="58" t="s">
-        <v>50</v>
-      </c>
+      <c r="J24" s="58"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="39"/>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
@@ -4766,132 +4788,132 @@
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="58"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="37"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50">
+        <f>SUM(H11:H24)</f>
+        <v>34.89</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50">
-        <f>SUM(H11:H25)</f>
-        <v>194.39000000000001</v>
-      </c>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+    <row r="28" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A29" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
+    <row r="29" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="24.95" customHeight="1">
+    <row r="30" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
+        <v>55</v>
+      </c>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="24.95" customHeight="1">
+    <row r="31" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
+        <v>56</v>
+      </c>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A32" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="59"/>
       <c r="C33" s="16"/>
@@ -4906,7 +4928,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="59"/>
       <c r="C34" s="16"/>
@@ -4921,7 +4943,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="59"/>
       <c r="C35" s="16"/>
@@ -4936,7 +4958,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="59"/>
       <c r="C36" s="16"/>
@@ -4951,7 +4973,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="59"/>
       <c r="C37" s="16"/>
@@ -4966,7 +4988,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="59"/>
       <c r="C38" s="16"/>
@@ -4981,7 +5003,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="59"/>
       <c r="C39" s="16"/>
@@ -4996,7 +5018,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="59"/>
       <c r="C40" s="16"/>
@@ -5011,7 +5033,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="59"/>
       <c r="C41" s="16"/>
@@ -5026,7 +5048,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="59"/>
       <c r="C42" s="16"/>
@@ -5041,7 +5063,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="59"/>
       <c r="C43" s="16"/>
@@ -5056,7 +5078,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="59"/>
       <c r="C44" s="16"/>
@@ -5071,7 +5093,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="59"/>
       <c r="C45" s="16"/>
@@ -5086,7 +5108,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="59"/>
       <c r="C46" s="16"/>
@@ -5101,7 +5123,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="59"/>
       <c r="C47" s="16"/>
@@ -5116,7 +5138,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="59"/>
       <c r="C48" s="16"/>
@@ -5131,7 +5153,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="59"/>
       <c r="C49" s="16"/>
@@ -5146,7 +5168,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="59"/>
       <c r="C50" s="16"/>
@@ -5161,7 +5183,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="59"/>
       <c r="C51" s="16"/>
@@ -5176,7 +5198,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="59"/>
       <c r="C52" s="16"/>
@@ -5191,7 +5213,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="59"/>
       <c r="C53" s="16"/>
@@ -5206,7 +5228,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="59"/>
       <c r="C54" s="16"/>
@@ -5221,7 +5243,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="59"/>
       <c r="C55" s="16"/>
@@ -5236,7 +5258,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="59"/>
       <c r="C56" s="16"/>
@@ -5251,7 +5273,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="59"/>
       <c r="C57" s="16"/>
@@ -5266,7 +5288,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="59"/>
       <c r="C58" s="16"/>
@@ -5281,7 +5303,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="59"/>
       <c r="C59" s="16"/>
@@ -5296,7 +5318,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="59"/>
       <c r="C60" s="16"/>
@@ -5311,7 +5333,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="59"/>
       <c r="C61" s="16"/>
@@ -5326,7 +5348,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="59"/>
       <c r="C62" s="16"/>
@@ -5341,7 +5363,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="59"/>
       <c r="C63" s="16"/>
@@ -5356,7 +5378,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="59"/>
       <c r="C64" s="16"/>
@@ -5371,7 +5393,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="59"/>
       <c r="C65" s="16"/>
@@ -5386,7 +5408,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="59"/>
       <c r="C66" s="16"/>
@@ -5401,7 +5423,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="59"/>
       <c r="C67" s="16"/>
@@ -5416,7 +5438,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="59"/>
       <c r="C68" s="16"/>
@@ -5431,7 +5453,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="59"/>
       <c r="C69" s="16"/>
@@ -5446,7 +5468,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="59"/>
       <c r="C70" s="16"/>
@@ -5461,7 +5483,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="59"/>
       <c r="C71" s="16"/>
@@ -5476,7 +5498,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="59"/>
       <c r="C72" s="16"/>
@@ -5491,7 +5513,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="59"/>
       <c r="C73" s="16"/>
@@ -5506,7 +5528,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="59"/>
       <c r="C74" s="16"/>
@@ -5521,7 +5543,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="59"/>
       <c r="C75" s="16"/>
@@ -5536,7 +5558,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="59"/>
       <c r="C76" s="16"/>
@@ -5551,7 +5573,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="59"/>
       <c r="C77" s="16"/>
@@ -5566,7 +5588,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="59"/>
       <c r="C78" s="16"/>
@@ -5581,7 +5603,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="59"/>
       <c r="C79" s="16"/>
@@ -5596,7 +5618,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="59"/>
       <c r="C80" s="16"/>
@@ -5611,7 +5633,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="59"/>
       <c r="C81" s="16"/>
@@ -5626,7 +5648,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="59"/>
       <c r="C82" s="16"/>
@@ -5641,7 +5663,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="59"/>
       <c r="C83" s="16"/>
@@ -5656,7 +5678,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="59"/>
       <c r="C84" s="16"/>
@@ -5671,7 +5693,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="59"/>
       <c r="C85" s="16"/>
@@ -5686,7 +5708,7 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="59"/>
       <c r="C86" s="16"/>
@@ -5701,7 +5723,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="59"/>
       <c r="C87" s="16"/>
@@ -5716,7 +5738,7 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="59"/>
       <c r="C88" s="16"/>
@@ -5731,7 +5753,7 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="59"/>
       <c r="C89" s="16"/>
@@ -5746,7 +5768,7 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="59"/>
       <c r="C90" s="16"/>
@@ -5761,7 +5783,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="59"/>
       <c r="C91" s="16"/>
@@ -5776,7 +5798,7 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="59"/>
       <c r="C92" s="16"/>
@@ -5791,7 +5813,7 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="59"/>
       <c r="C93" s="16"/>
@@ -5806,7 +5828,7 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="59"/>
       <c r="C94" s="16"/>
@@ -5821,7 +5843,7 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="59"/>
       <c r="C95" s="16"/>
@@ -5836,7 +5858,7 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="59"/>
       <c r="C96" s="16"/>
@@ -5851,7 +5873,7 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="59"/>
       <c r="C97" s="16"/>
@@ -5866,7 +5888,7 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="59"/>
       <c r="C98" s="16"/>
@@ -5881,7 +5903,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="59"/>
       <c r="C99" s="16"/>
@@ -5896,7 +5918,7 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="59"/>
       <c r="C100" s="16"/>
@@ -5911,7 +5933,7 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="59"/>
       <c r="C101" s="16"/>
@@ -5926,7 +5948,7 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="59"/>
       <c r="C102" s="16"/>
@@ -5941,7 +5963,7 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="59"/>
       <c r="C103" s="16"/>
@@ -5956,7 +5978,7 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="59"/>
       <c r="C104" s="16"/>
@@ -5971,7 +5993,7 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
       <c r="B105" s="59"/>
       <c r="C105" s="16"/>
@@ -5986,7 +6008,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="59"/>
       <c r="C106" s="16"/>
@@ -6001,7 +6023,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="59"/>
       <c r="C107" s="16"/>
@@ -6016,7 +6038,7 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="59"/>
       <c r="C108" s="16"/>
@@ -6031,9 +6053,9 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
-      <c r="B109" s="59"/>
+      <c r="B109" s="3"/>
       <c r="C109" s="16"/>
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
@@ -6046,7 +6068,7 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="3"/>
       <c r="C110" s="16"/>
@@ -6061,7 +6083,7 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="3"/>
       <c r="C111" s="16"/>
@@ -6076,7 +6098,7 @@
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="3"/>
       <c r="C112" s="16"/>
@@ -6091,7 +6113,7 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="3"/>
       <c r="C113" s="16"/>
@@ -6106,7 +6128,7 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="3"/>
       <c r="C114" s="16"/>
@@ -6121,7 +6143,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="3"/>
       <c r="C115" s="16"/>
@@ -6136,13 +6158,13 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="3"/>
       <c r="C116" s="16"/>
       <c r="D116" s="17"/>
       <c r="E116" s="17"/>
-      <c r="F116" s="16"/>
+      <c r="F116" s="3"/>
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
       <c r="I116" s="1"/>
@@ -6151,7 +6173,7 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="3"/>
       <c r="C117" s="16"/>
@@ -6166,7 +6188,7 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="3"/>
       <c r="C118" s="16"/>
@@ -6181,7 +6203,7 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="3"/>
       <c r="C119" s="16"/>
@@ -6196,7 +6218,7 @@
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="3"/>
       <c r="C120" s="16"/>
@@ -6211,7 +6233,7 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
       <c r="B121" s="3"/>
       <c r="C121" s="16"/>
@@ -6226,7 +6248,7 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="3"/>
       <c r="C122" s="16"/>
@@ -6241,7 +6263,7 @@
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="3"/>
       <c r="C123" s="16"/>
@@ -6256,7 +6278,7 @@
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
       <c r="B124" s="3"/>
       <c r="C124" s="16"/>
@@ -6271,7 +6293,7 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="3"/>
       <c r="C125" s="16"/>
@@ -6286,7 +6308,7 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="3"/>
       <c r="C126" s="16"/>
@@ -6301,7 +6323,7 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="15"/>
       <c r="B127" s="3"/>
       <c r="C127" s="16"/>
@@ -6316,7 +6338,7 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="3"/>
       <c r="C128" s="16"/>
@@ -6331,7 +6353,7 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="3"/>
       <c r="C129" s="16"/>
@@ -6346,7 +6368,7 @@
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="3"/>
       <c r="C130" s="16"/>
@@ -6361,7 +6383,7 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="3"/>
       <c r="C131" s="16"/>
@@ -6376,7 +6398,7 @@
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
       <c r="B132" s="3"/>
       <c r="C132" s="16"/>
@@ -6391,7 +6413,7 @@
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
       <c r="B133" s="3"/>
       <c r="C133" s="16"/>
@@ -6406,7 +6428,7 @@
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="3"/>
       <c r="C134" s="16"/>
@@ -6421,7 +6443,7 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
       <c r="B135" s="3"/>
       <c r="C135" s="16"/>
@@ -6436,7 +6458,7 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="15"/>
       <c r="B136" s="3"/>
       <c r="C136" s="16"/>
@@ -6451,7 +6473,7 @@
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="3"/>
       <c r="C137" s="16"/>
@@ -6466,7 +6488,7 @@
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
       <c r="B138" s="3"/>
       <c r="C138" s="16"/>
@@ -6481,7 +6503,7 @@
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
       <c r="B139" s="3"/>
       <c r="C139" s="16"/>
@@ -6496,7 +6518,7 @@
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
       <c r="B140" s="3"/>
       <c r="C140" s="16"/>
@@ -6511,7 +6533,7 @@
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="15"/>
       <c r="B141" s="3"/>
       <c r="C141" s="16"/>
@@ -6526,7 +6548,7 @@
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="15"/>
       <c r="B142" s="3"/>
       <c r="C142" s="16"/>
@@ -6541,7 +6563,7 @@
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="15"/>
       <c r="B143" s="3"/>
       <c r="C143" s="16"/>
@@ -6556,7 +6578,7 @@
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="15"/>
       <c r="B144" s="3"/>
       <c r="C144" s="16"/>
@@ -6571,7 +6593,7 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
       <c r="B145" s="3"/>
       <c r="C145" s="16"/>
@@ -6586,7 +6608,7 @@
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="3"/>
       <c r="C146" s="16"/>
@@ -6601,7 +6623,7 @@
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="15"/>
       <c r="B147" s="3"/>
       <c r="C147" s="16"/>
@@ -6616,7 +6638,7 @@
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
       <c r="B148" s="3"/>
       <c r="C148" s="16"/>
@@ -6631,7 +6653,7 @@
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
       <c r="B149" s="3"/>
       <c r="C149" s="16"/>
@@ -6646,7 +6668,7 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="15"/>
       <c r="B150" s="3"/>
       <c r="C150" s="16"/>
@@ -6661,7 +6683,7 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="15"/>
       <c r="B151" s="3"/>
       <c r="C151" s="16"/>
@@ -6676,7 +6698,7 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="15"/>
       <c r="B152" s="3"/>
       <c r="C152" s="16"/>
@@ -6691,7 +6713,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="15"/>
       <c r="B153" s="3"/>
       <c r="C153" s="16"/>
@@ -6706,7 +6728,7 @@
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="15"/>
       <c r="B154" s="3"/>
       <c r="C154" s="16"/>
@@ -6721,7 +6743,7 @@
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
       <c r="B155" s="3"/>
       <c r="C155" s="16"/>
@@ -6736,7 +6758,7 @@
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
       <c r="B156" s="3"/>
       <c r="C156" s="16"/>
@@ -6751,7 +6773,7 @@
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
       <c r="B157" s="3"/>
       <c r="C157" s="16"/>
@@ -6766,7 +6788,7 @@
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
       <c r="B158" s="3"/>
       <c r="C158" s="16"/>
@@ -6781,7 +6803,7 @@
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="15"/>
       <c r="B159" s="3"/>
       <c r="C159" s="16"/>
@@ -6796,7 +6818,7 @@
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="15"/>
       <c r="B160" s="3"/>
       <c r="C160" s="16"/>
@@ -6811,7 +6833,7 @@
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
       <c r="B161" s="3"/>
       <c r="C161" s="16"/>
@@ -6826,7 +6848,7 @@
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="15"/>
       <c r="B162" s="3"/>
       <c r="C162" s="16"/>
@@ -6841,7 +6863,7 @@
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="15"/>
       <c r="B163" s="3"/>
       <c r="C163" s="16"/>
@@ -6856,7 +6878,7 @@
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="3"/>
       <c r="C164" s="16"/>
@@ -6871,7 +6893,7 @@
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
       <c r="B165" s="3"/>
       <c r="C165" s="16"/>
@@ -6886,7 +6908,7 @@
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="15"/>
       <c r="B166" s="3"/>
       <c r="C166" s="16"/>
@@ -6901,8 +6923,8 @@
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
     </row>
-    <row r="167" spans="1:13">
-      <c r="A167" s="15"/>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="16"/>
       <c r="D167" s="17"/>
@@ -6916,7 +6938,7 @@
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="16"/>
@@ -6931,85 +6953,65 @@
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="16"/>
       <c r="D169" s="17"/>
       <c r="E169" s="17"/>
       <c r="F169" s="3"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
     </row>
-    <row r="170" spans="1:13">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
     </row>
-    <row r="171" spans="1:13">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B32:H32"/>
+  <mergeCells count="6">
     <mergeCell ref="B29:H29"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="J8:K9"/>
     <mergeCell ref="B30:H30"/>
-    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="C3:H7"/>
     <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B28:H28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J13" r:id="rId1" xr:uid="{7008E78F-E93C-4F3B-9E40-C7AA0A292792}"/>
-    <hyperlink ref="J15" r:id="rId2" xr:uid="{6942C802-7DCF-4D6A-B4DB-8FBCD86E7612}"/>
-    <hyperlink ref="K13" r:id="rId3" xr:uid="{784E2AF4-23D2-444B-A14F-A44DA5E57542}"/>
-    <hyperlink ref="J14" r:id="rId4" display="https://www.banggood.com/5-Road-Tracing-Module-Tracing-Sensor-Module-5-Functions-Intelligent-Vehicle-Control-Module-p-1396250.html?gmcCountry=PT&amp;currency=EUR&amp;createTmp=1&amp;utm_source=googleshopping&amp;utm_medium=cpc_bgcs&amp;utm_content=haosen&amp;utm_campaign=ssc-pt-en-all-newcustom-0721&amp;ad_id=450743339188&amp;gclid=CjwKCAiA4o79BRBvEiwAjteoYEVg5mVkUqyq5DRG5TsB84rFSzAoOHwOW_Ik2qKLbnqU8WeLtqb6GBoCs5UQAvD_BwE&amp;cur_warehouse=CN" xr:uid="{350E9E6B-3F03-4997-B31A-592E80AC7C25}"/>
-    <hyperlink ref="J16" r:id="rId5" xr:uid="{A947EFC7-0E77-4A32-BC58-060B1ED5E934}"/>
-    <hyperlink ref="J17" r:id="rId6" xr:uid="{CA7E1A5C-E675-44AC-A149-B2C0D3B75D59}"/>
-    <hyperlink ref="J18" r:id="rId7" display="https://www.aliexpress.com/item/32970333618.html?spm=a2g0o.productlist.0.0.7b401f02GNiaYD&amp;algo_pvid=71c37ea9-0349-4b82-8dc6-ac0721555155&amp;algo_expid=71c37ea9-0349-4b82-8dc6-ac0721555155-18&amp;btsid=0bb0624316046014950631118e0759&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{60827A2D-3D84-471C-A51A-77C67A3494CD}"/>
-    <hyperlink ref="J20" r:id="rId8" display="https://www.aliexpress.com/item/32711841420.html?spm=a2g0o.productlist.0.0.68084440KfYkOE&amp;algo_pvid=c4d87ec6-d512-4957-a029-bfe541f720be&amp;algo_expid=c4d87ec6-d512-4957-a029-bfe541f720be-6&amp;btsid=0b0a557216046035915413590e2fa3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{CC45D278-099B-4981-A218-7B42B95E44CB}"/>
-    <hyperlink ref="J21" r:id="rId9" display="https://www.aliexpress.com/item/32825558073.html?spm=a2g0o.productlist.0.0.44384441eKbQOB&amp;algo_pvid=35264156-5379-4132-9627-13affbb95cc1&amp;algo_expid=35264156-5379-4132-9627-13affbb95cc1-1&amp;btsid=0bb0622e16046036529728895e4c4b&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{54FEEA9D-3A12-4472-8986-CD78D773AD99}"/>
-    <hyperlink ref="J22" r:id="rId10" display="https://www.aliexpress.com/item/32825558073.html?spm=a2g0o.productlist.0.0.44384441eKbQOB&amp;algo_pvid=35264156-5379-4132-9627-13affbb95cc1&amp;algo_expid=35264156-5379-4132-9627-13affbb95cc1-1&amp;btsid=0bb0622e16046036529728895e4c4b&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{B185078E-E9F1-435F-A109-6904BA17118E}"/>
-    <hyperlink ref="J23" r:id="rId11" display="https://www.aliexpress.com/item/4000108827764.html?spm=a2g0o.productlist.0.0.542b31a4GjoSiR&amp;algo_pvid=69e801f2-8fc1-4df6-b198-3d32f88868cf&amp;algo_expid=69e801f2-8fc1-4df6-b198-3d32f88868cf-1&amp;btsid=0b0a555c16046173844194541e7602&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{3C2F9F14-A56B-4B66-928D-95E3969E401A}"/>
-    <hyperlink ref="J11" r:id="rId12" display="https://www.aliexpress.com/item/1005001671905196.html?cv=1578323&amp;af=317185&amp;aff_platform=aaf&amp;afref=https%3A%2F%2Fpt-go.kelkoogroup.net%2Fgo%3Fcountry%3Dpt%26k%3D612f7a9541cd6ea61eb554c0e4cff43733a2e1ee73eabb4dd0e09eb5f5bd8713b9c809ab68e92f89fcb1fc4978394f232f96a079711fc9134efe9b42280e445c55ebbcea51ec598cdceab29073897c77a79b95c376632f32d0ef05a622e62ab22cd421d9638201c1f7ca3ddaae2243b59f81849d9691a9470009180c6f28e9154801bbe41166a69a6ec54da6f9d0b74b2d175f3da77a131961f9d5e7f3c2e9208234b27218ee077cc8c15daf3f999f4e48ce8a05a9166a21c8a6e1aab9b7751e1c5aae847ee94d7c50d6ea5771010c9f2cb221a11b78b160c6594ebf6603699d9f7ba6863d80a98d659a0f17081d7e758fafe9aae2f16c89f316ca6dadb9656cafcd20a892c545c643b96aa1a4569cd8bd407bce10719f94191c298ffdaed5ca94f125eccd6bf09e87a5522f6aa24ad8cf6b84d113b8388a1e80cd5db2292994cda08ef86d2c59ad058c392ca8a12df311b62a07f2c122fd2750884e51b78a823832a110b7881a990e4c6e8db09d2519b91af49b741c5ef9585e35151bbc9c18bab6cbd35428c24aaf8da4c78b145e87be783b806e53846586292cb99217475f7373475bfea30b1c5ed5ab679e5cf3afccaba87a475326e03e93df90e3305c2ffdd571d04316f9a4a62d2a8f6aec5d9a3b3dd7e945b711c799e2cd9c2ae2fc1f320937da061bd9fd56a805617025d9687831d79618e522b9df771dd94128dee29c2c56361fe6052578d42bb40a4c7e07476b172a4931accb26d541cd97f9fa80b88aa1dcfe1a51de9913a244c92e1dc800054f645dbf4ddb472eee8148899260e695a2ed6b2bb4a2d24b391ba2ef98576b52f6c88e8ef661%26o%3D&amp;sk=Y7bAZbY&amp;aff_trace_key=9ac7ebc4606e4b98a5afa65ef5ae966b-1604619153713-06995-Y7bAZbY&amp;cn=27294&amp;dp=1578323%3A%3A317185%3A%3Adc1-kls-prod-srv-05.prod.dc1.kelkoo.net%7E1604619152581%7E3579811%3A%3A%3A%3A1604619153&amp;terminal_id=994c876fb30e4c74af025048b67940cc" xr:uid="{25769839-CE86-4274-A390-FFF7947FEBD6}"/>
-    <hyperlink ref="J24" r:id="rId13" xr:uid="{10E080FB-36D6-4DD0-8103-458390EDEAB9}"/>
+    <hyperlink ref="J12" r:id="rId1" xr:uid="{7008E78F-E93C-4F3B-9E40-C7AA0A292792}"/>
+    <hyperlink ref="J14" r:id="rId2" xr:uid="{6942C802-7DCF-4D6A-B4DB-8FBCD86E7612}"/>
+    <hyperlink ref="K12" r:id="rId3" xr:uid="{784E2AF4-23D2-444B-A14F-A44DA5E57542}"/>
+    <hyperlink ref="J13" r:id="rId4" display="https://www.banggood.com/5-Road-Tracing-Module-Tracing-Sensor-Module-5-Functions-Intelligent-Vehicle-Control-Module-p-1396250.html?gmcCountry=PT&amp;currency=EUR&amp;createTmp=1&amp;utm_source=googleshopping&amp;utm_medium=cpc_bgcs&amp;utm_content=haosen&amp;utm_campaign=ssc-pt-en-all-newcustom-0721&amp;ad_id=450743339188&amp;gclid=CjwKCAiA4o79BRBvEiwAjteoYEVg5mVkUqyq5DRG5TsB84rFSzAoOHwOW_Ik2qKLbnqU8WeLtqb6GBoCs5UQAvD_BwE&amp;cur_warehouse=CN" xr:uid="{350E9E6B-3F03-4997-B31A-592E80AC7C25}"/>
+    <hyperlink ref="J15" r:id="rId5" xr:uid="{A947EFC7-0E77-4A32-BC58-060B1ED5E934}"/>
+    <hyperlink ref="J16" r:id="rId6" xr:uid="{CA7E1A5C-E675-44AC-A149-B2C0D3B75D59}"/>
+    <hyperlink ref="J17" r:id="rId7" display="https://www.aliexpress.com/item/32970333618.html?spm=a2g0o.productlist.0.0.7b401f02GNiaYD&amp;algo_pvid=71c37ea9-0349-4b82-8dc6-ac0721555155&amp;algo_expid=71c37ea9-0349-4b82-8dc6-ac0721555155-18&amp;btsid=0bb0624316046014950631118e0759&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{60827A2D-3D84-471C-A51A-77C67A3494CD}"/>
+    <hyperlink ref="J19" r:id="rId8" display="https://www.aliexpress.com/item/32711841420.html?spm=a2g0o.productlist.0.0.68084440KfYkOE&amp;algo_pvid=c4d87ec6-d512-4957-a029-bfe541f720be&amp;algo_expid=c4d87ec6-d512-4957-a029-bfe541f720be-6&amp;btsid=0b0a557216046035915413590e2fa3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{CC45D278-099B-4981-A218-7B42B95E44CB}"/>
+    <hyperlink ref="J20" r:id="rId9" display="https://www.aliexpress.com/item/32825558073.html?spm=a2g0o.productlist.0.0.44384441eKbQOB&amp;algo_pvid=35264156-5379-4132-9627-13affbb95cc1&amp;algo_expid=35264156-5379-4132-9627-13affbb95cc1-1&amp;btsid=0bb0622e16046036529728895e4c4b&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{54FEEA9D-3A12-4472-8986-CD78D773AD99}"/>
+    <hyperlink ref="J21" r:id="rId10" display="https://www.aliexpress.com/item/32825558073.html?spm=a2g0o.productlist.0.0.44384441eKbQOB&amp;algo_pvid=35264156-5379-4132-9627-13affbb95cc1&amp;algo_expid=35264156-5379-4132-9627-13affbb95cc1-1&amp;btsid=0bb0622e16046036529728895e4c4b&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{B185078E-E9F1-435F-A109-6904BA17118E}"/>
+    <hyperlink ref="J22" r:id="rId11" display="https://www.aliexpress.com/item/4000108827764.html?spm=a2g0o.productlist.0.0.542b31a4GjoSiR&amp;algo_pvid=69e801f2-8fc1-4df6-b198-3d32f88868cf&amp;algo_expid=69e801f2-8fc1-4df6-b198-3d32f88868cf-1&amp;btsid=0b0a555c16046173844194541e7602&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{3C2F9F14-A56B-4B66-928D-95E3969E401A}"/>
+    <hyperlink ref="J23" r:id="rId12" xr:uid="{10E080FB-36D6-4DD0-8103-458390EDEAB9}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId14"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId13"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="9" max="7" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>